--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacqui.Muller\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Persie\Documents\UiPath\Connected Office Web ApplicationUser Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB8EEF-425E-42A8-A7F1-FF25847C778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E97094-2FCA-4E90-95F7-15B3B7EBF3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Status</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Delete Test Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRUE</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,16 +1170,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,16 +1187,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,16 +1204,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,33 +1221,33 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,16 +1255,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,16 +1272,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,16 +1289,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,16 +1306,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
